--- a/GestionProjet/GanttComplete.xlsx
+++ b/GestionProjet/GanttComplete.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C44D837-BBAE-DA44-944A-13A65BCAD9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6EE600-4BD4-9149-A091-D27C0870484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -41,30 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <t>PLAN START</t>
@@ -238,9 +217,6 @@
     <t>Liste questions pour vectorialiser l'USER</t>
   </si>
   <si>
-    <t>Prompt Enginering</t>
-  </si>
-  <si>
     <t>Scrapping Gif</t>
   </si>
   <si>
@@ -254,6 +230,18 @@
   </si>
   <si>
     <t>Partenaria(Pavillon Sportif)</t>
+  </si>
+  <si>
+    <t>Prompt "Enginering"</t>
+  </si>
+  <si>
+    <t>Stratégie Marketing</t>
+  </si>
+  <si>
+    <t>Déposer l'application sur les stores mobiles</t>
+  </si>
+  <si>
+    <t>Voir les financements de MAJ</t>
   </si>
 </sst>
 </file>
@@ -660,7 +648,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,6 +706,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="16" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -747,57 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="16" xfId="6" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="8" borderId="2" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -822,272 +804,6 @@
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1230,6 +946,272 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1244,18 +1226,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACC15193-E76F-7343-8E20-672E3FFE3BF0}" name="Table1" displayName="Table1" ref="B5:G31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACC15193-E76F-7343-8E20-672E3FFE3BF0}" name="Table1" displayName="Table1" ref="B5:G31" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="B5:G31" xr:uid="{ACC15193-E76F-7343-8E20-672E3FFE3BF0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:G31">
     <sortCondition ref="C5:C31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BA5E9773-7618-3C42-B6E3-0A25969E9463}" name="Column1" dataDxfId="7" dataCellStyle="Activity"/>
-    <tableColumn id="2" xr3:uid="{13A492A0-B71B-074A-B8EF-C87814182110}" name="Column2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4CA2137F-7FD6-6D46-9352-439F1AB82384}" name="Column3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{36F1149E-3996-1643-A059-208D5E16A15E}" name="Column4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4EFA4CE3-82F7-424F-B76A-EBFB052683AA}" name="Column5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6B7E51E1-5D27-0642-95B5-BDFB06B43F17}" name="Column6" dataDxfId="2" dataCellStyle="Percent Complete"/>
+    <tableColumn id="1" xr3:uid="{BA5E9773-7618-3C42-B6E3-0A25969E9463}" name="Column1" dataDxfId="15" dataCellStyle="Activity"/>
+    <tableColumn id="2" xr3:uid="{13A492A0-B71B-074A-B8EF-C87814182110}" name="Column2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4CA2137F-7FD6-6D46-9352-439F1AB82384}" name="Column3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{36F1149E-3996-1643-A059-208D5E16A15E}" name="Column4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{4EFA4CE3-82F7-424F-B76A-EBFB052683AA}" name="Column5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{6B7E51E1-5D27-0642-95B5-BDFB06B43F17}" name="Column6" dataDxfId="10" dataCellStyle="Percent Complete"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1494,8 +1476,8 @@
   </sheetPr>
   <dimension ref="A1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1523,83 +1505,83 @@
     </row>
     <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
     </row>
     <row r="3" spans="1:67" s="8" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>13</v>
+      <c r="C3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>6</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
@@ -1613,7 +1595,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="45">
+      <c r="U3" s="33">
         <v>45555</v>
       </c>
       <c r="V3" s="7"/>
@@ -1622,20 +1604,20 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AJ3" s="44">
+      <c r="AJ3" s="32">
         <v>45569</v>
       </c>
-      <c r="BE3" s="44">
+      <c r="BE3" s="32">
         <v>45590</v>
       </c>
     </row>
     <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1675,7 +1657,7 @@
       <c r="T4" s="3">
         <v>13</v>
       </c>
-      <c r="U4" s="41">
+      <c r="U4" s="29">
         <v>14</v>
       </c>
       <c r="V4" s="3">
@@ -1720,7 +1702,7 @@
       <c r="AI4" s="3">
         <v>28</v>
       </c>
-      <c r="AJ4" s="41">
+      <c r="AJ4" s="29">
         <v>29</v>
       </c>
       <c r="AK4" s="3">
@@ -1783,7 +1765,7 @@
       <c r="BD4" s="3">
         <v>49</v>
       </c>
-      <c r="BE4" s="41">
+      <c r="BE4" s="29">
         <v>50</v>
       </c>
       <c r="BF4" s="3">
@@ -1818,611 +1800,599 @@
       </c>
     </row>
     <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="30"/>
+    </row>
+    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>14</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
+        <v>7</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1</v>
+      </c>
+      <c r="U6" s="30"/>
+    </row>
+    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>14</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>7</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1</v>
+      </c>
+      <c r="U7" s="30"/>
+    </row>
+    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>14</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>7</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>14</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>7</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
+        <v>14</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>7</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="U10" s="30"/>
+    </row>
+    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="19">
+        <v>7</v>
+      </c>
+      <c r="D11" s="19">
+        <v>7</v>
+      </c>
+      <c r="E11" s="19">
+        <v>9</v>
+      </c>
+      <c r="F11" s="19">
+        <v>5</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="U11" s="30"/>
+    </row>
+    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19">
+        <v>7</v>
+      </c>
+      <c r="D12" s="19">
+        <v>7</v>
+      </c>
+      <c r="E12" s="19">
+        <v>9</v>
+      </c>
+      <c r="F12" s="19">
+        <v>5</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="U12" s="30"/>
+    </row>
+    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="19">
+        <v>7</v>
+      </c>
+      <c r="D13" s="19">
+        <v>7</v>
+      </c>
+      <c r="E13" s="19">
+        <v>7</v>
+      </c>
+      <c r="F13" s="19">
+        <v>5</v>
+      </c>
+      <c r="G13" s="22">
+        <v>1</v>
+      </c>
+      <c r="U13" s="30"/>
+    </row>
+    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="19">
+        <v>14</v>
+      </c>
+      <c r="D14" s="19">
+        <v>7</v>
+      </c>
+      <c r="E14" s="19">
+        <v>14</v>
+      </c>
+      <c r="F14" s="19">
+        <v>7</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="U14" s="30"/>
+    </row>
+    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="19">
+        <v>14</v>
+      </c>
+      <c r="D15" s="19">
+        <v>7</v>
+      </c>
+      <c r="E15" s="19">
+        <v>14</v>
+      </c>
+      <c r="F15" s="19">
+        <v>6</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1</v>
+      </c>
+      <c r="U15" s="30"/>
+    </row>
+    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="20">
+        <v>14</v>
+      </c>
+      <c r="D16" s="19">
+        <v>7</v>
+      </c>
+      <c r="E16" s="19">
+        <v>14</v>
+      </c>
+      <c r="F16" s="19">
+        <v>9</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+      <c r="U16" s="30"/>
+    </row>
+    <row r="17" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="19">
+        <v>14</v>
+      </c>
+      <c r="D17" s="19">
+        <v>14</v>
+      </c>
+      <c r="E17" s="19">
+        <v>14</v>
+      </c>
+      <c r="F17" s="19">
+        <v>10</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="U17" s="30"/>
+    </row>
+    <row r="18" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="19">
+        <v>21</v>
+      </c>
+      <c r="D18" s="19">
+        <v>7</v>
+      </c>
+      <c r="E18" s="19">
+        <v>29</v>
+      </c>
+      <c r="F18" s="19">
+        <v>7</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="U18" s="30"/>
+    </row>
+    <row r="19" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="19">
+        <v>21</v>
+      </c>
+      <c r="D19" s="19">
+        <v>35</v>
+      </c>
+      <c r="E19" s="19">
+        <v>29</v>
+      </c>
+      <c r="F19" s="19">
+        <v>14</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="U19" s="30"/>
+    </row>
+    <row r="20" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C20" s="19">
+        <v>21</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5</v>
+      </c>
+      <c r="E20" s="19">
+        <v>7</v>
+      </c>
+      <c r="F20" s="19">
+        <v>6</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="U20" s="30"/>
+    </row>
+    <row r="21" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="C21" s="19">
+        <v>14</v>
+      </c>
+      <c r="D21" s="19">
+        <v>56</v>
+      </c>
+      <c r="E21" s="19">
+        <v>14</v>
+      </c>
+      <c r="F21" s="19">
+        <v>29</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="U21" s="30"/>
+    </row>
+    <row r="22" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="42"/>
-    </row>
-    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="31">
-        <v>1</v>
-      </c>
-      <c r="D6" s="31">
-        <v>14</v>
-      </c>
-      <c r="E6" s="31">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="C22" s="19">
+        <v>29</v>
+      </c>
+      <c r="D22" s="19">
         <v>7</v>
       </c>
-      <c r="G6" s="34">
-        <v>1</v>
-      </c>
-      <c r="U6" s="42"/>
-    </row>
-    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="31">
-        <v>1</v>
-      </c>
-      <c r="D7" s="31">
-        <v>14</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31">
-        <v>7</v>
-      </c>
-      <c r="G7" s="34">
-        <v>1</v>
-      </c>
-      <c r="U7" s="42"/>
-    </row>
-    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="31">
-        <v>1</v>
-      </c>
-      <c r="D8" s="31">
-        <v>14</v>
-      </c>
-      <c r="E8" s="31">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31">
-        <v>7</v>
-      </c>
-      <c r="G8" s="34">
-        <v>1</v>
-      </c>
-      <c r="U8" s="42"/>
-    </row>
-    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="31">
-        <v>1</v>
-      </c>
-      <c r="D9" s="31">
-        <v>14</v>
-      </c>
-      <c r="E9" s="31">
-        <v>1</v>
-      </c>
-      <c r="F9" s="31">
-        <v>7</v>
-      </c>
-      <c r="G9" s="34">
-        <v>1</v>
-      </c>
-      <c r="U9" s="42"/>
-    </row>
-    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="31">
-        <v>1</v>
-      </c>
-      <c r="D10" s="31">
-        <v>14</v>
-      </c>
-      <c r="E10" s="31">
-        <v>1</v>
-      </c>
-      <c r="F10" s="31">
-        <v>7</v>
-      </c>
-      <c r="G10" s="34">
-        <v>1</v>
-      </c>
-      <c r="U10" s="42"/>
-    </row>
-    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
+      <c r="E22" s="19">
         <v>29</v>
       </c>
-      <c r="C11" s="31">
-        <v>7</v>
-      </c>
-      <c r="D11" s="31">
-        <v>7</v>
-      </c>
-      <c r="E11" s="31">
-        <v>9</v>
-      </c>
-      <c r="F11" s="31">
+      <c r="F22" s="19">
         <v>5</v>
       </c>
-      <c r="G11" s="34">
-        <v>1</v>
-      </c>
-      <c r="U11" s="42"/>
-    </row>
-    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="31">
-        <v>7</v>
-      </c>
-      <c r="D12" s="31">
-        <v>7</v>
-      </c>
-      <c r="E12" s="31">
-        <v>9</v>
-      </c>
-      <c r="F12" s="31">
-        <v>5</v>
-      </c>
-      <c r="G12" s="34">
-        <v>1</v>
-      </c>
-      <c r="U12" s="42"/>
-    </row>
-    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="31">
-        <v>7</v>
-      </c>
-      <c r="D13" s="31">
-        <v>7</v>
-      </c>
-      <c r="E13" s="31">
-        <v>7</v>
-      </c>
-      <c r="F13" s="31">
-        <v>5</v>
-      </c>
-      <c r="G13" s="34">
-        <v>1</v>
-      </c>
-      <c r="U13" s="42"/>
-    </row>
-    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="31">
-        <v>14</v>
-      </c>
-      <c r="D14" s="31">
-        <v>7</v>
-      </c>
-      <c r="E14" s="31">
-        <v>14</v>
-      </c>
-      <c r="F14" s="31">
-        <v>7</v>
-      </c>
-      <c r="G14" s="34">
-        <v>1</v>
-      </c>
-      <c r="U14" s="42"/>
-    </row>
-    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="31">
-        <v>14</v>
-      </c>
-      <c r="D15" s="31">
-        <v>7</v>
-      </c>
-      <c r="E15" s="31">
-        <v>14</v>
-      </c>
-      <c r="F15" s="31">
-        <v>6</v>
-      </c>
-      <c r="G15" s="34">
-        <v>1</v>
-      </c>
-      <c r="U15" s="42"/>
-    </row>
-    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="32">
-        <v>14</v>
-      </c>
-      <c r="D16" s="31">
-        <v>7</v>
-      </c>
-      <c r="E16" s="31">
-        <v>14</v>
-      </c>
-      <c r="F16" s="31">
-        <v>9</v>
-      </c>
-      <c r="G16" s="34">
-        <v>1</v>
-      </c>
-      <c r="U16" s="42"/>
-    </row>
-    <row r="17" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="31">
-        <v>14</v>
-      </c>
-      <c r="D17" s="31">
-        <v>14</v>
-      </c>
-      <c r="E17" s="31">
-        <v>14</v>
-      </c>
-      <c r="F17" s="31">
-        <v>10</v>
-      </c>
-      <c r="G17" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="U17" s="42"/>
-    </row>
-    <row r="18" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="31">
-        <v>21</v>
-      </c>
-      <c r="D18" s="31">
-        <v>7</v>
-      </c>
-      <c r="E18" s="31">
-        <v>29</v>
-      </c>
-      <c r="F18" s="31">
-        <v>7</v>
-      </c>
-      <c r="G18" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="U18" s="42"/>
-    </row>
-    <row r="19" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="31">
-        <v>21</v>
-      </c>
-      <c r="D19" s="31">
-        <v>35</v>
-      </c>
-      <c r="E19" s="31">
-        <v>29</v>
-      </c>
-      <c r="F19" s="31">
-        <v>14</v>
-      </c>
-      <c r="G19" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="U19" s="42"/>
-    </row>
-    <row r="20" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="31">
-        <v>21</v>
-      </c>
-      <c r="D20" s="31">
-        <v>5</v>
-      </c>
-      <c r="E20" s="31">
-        <v>7</v>
-      </c>
-      <c r="F20" s="31">
-        <v>6</v>
-      </c>
-      <c r="G20" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="U20" s="42"/>
-    </row>
-    <row r="21" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="31">
-        <v>14</v>
-      </c>
-      <c r="D21" s="31">
-        <v>56</v>
-      </c>
-      <c r="E21" s="31">
-        <v>14</v>
-      </c>
-      <c r="F21" s="31">
-        <v>29</v>
-      </c>
-      <c r="G21" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="U21" s="42"/>
-    </row>
-    <row r="22" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="31">
-        <v>29</v>
-      </c>
-      <c r="D22" s="31">
-        <v>7</v>
-      </c>
-      <c r="E22" s="31">
-        <v>29</v>
-      </c>
-      <c r="F22" s="31">
-        <v>5</v>
-      </c>
-      <c r="G22" s="34">
-        <v>1</v>
-      </c>
-      <c r="U22" s="42"/>
+      <c r="G22" s="22">
+        <v>1</v>
+      </c>
+      <c r="U22" s="30"/>
       <c r="BL22" s="1"/>
       <c r="BM22" s="1"/>
       <c r="BN22" s="1"/>
       <c r="BO22" s="1"/>
     </row>
     <row r="23" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="31">
+      <c r="A23" s="31"/>
+      <c r="B23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="19">
         <v>29</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="19">
         <v>7</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="19">
         <v>25</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="19">
         <v>9</v>
       </c>
-      <c r="G23" s="34">
-        <v>1</v>
-      </c>
-      <c r="U23" s="42"/>
+      <c r="G23" s="22">
+        <v>1</v>
+      </c>
+      <c r="U23" s="30"/>
       <c r="BL23" s="1"/>
       <c r="BM23" s="1"/>
       <c r="BN23" s="1"/>
       <c r="BO23" s="1"/>
     </row>
     <row r="24" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="31">
-        <v>15</v>
-      </c>
-      <c r="D24" s="31">
-        <v>4</v>
-      </c>
-      <c r="E24" s="31">
-        <v>15</v>
-      </c>
-      <c r="F24" s="31">
+      <c r="B24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="19">
+        <v>42</v>
+      </c>
+      <c r="D24" s="19">
         <v>8</v>
       </c>
-      <c r="G24" s="34">
+      <c r="E24" s="19">
+        <v>40</v>
+      </c>
+      <c r="F24" s="19">
+        <v>10</v>
+      </c>
+      <c r="G24" s="22">
         <v>0.12</v>
       </c>
-      <c r="U24" s="42"/>
+      <c r="U24" s="30"/>
       <c r="BL24" s="1"/>
       <c r="BM24" s="1"/>
       <c r="BN24" s="1"/>
       <c r="BO24" s="1"/>
     </row>
     <row r="25" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="31">
-        <v>16</v>
-      </c>
-      <c r="D25" s="31">
-        <v>28</v>
-      </c>
-      <c r="E25" s="31">
-        <v>16</v>
-      </c>
-      <c r="F25" s="31">
-        <v>30</v>
-      </c>
-      <c r="G25" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="U25" s="42"/>
+      <c r="B25" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="19">
+        <v>60</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="30"/>
       <c r="BL25" s="1"/>
       <c r="BM25" s="1"/>
       <c r="BN25" s="1"/>
       <c r="BO25" s="1"/>
     </row>
     <row r="26" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="31">
-        <v>20</v>
-      </c>
-      <c r="D26" s="31">
-        <v>4</v>
-      </c>
-      <c r="E26" s="31">
-        <v>8</v>
-      </c>
-      <c r="F26" s="31">
-        <v>5</v>
-      </c>
-      <c r="G26" s="34">
+      <c r="B26" s="21"/>
+      <c r="C26" s="19">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
         <v>0.01</v>
       </c>
-      <c r="U26" s="42"/>
+      <c r="U26" s="30"/>
       <c r="BL26" s="1"/>
       <c r="BM26" s="1"/>
       <c r="BN26" s="1"/>
       <c r="BO26" s="1"/>
     </row>
     <row r="27" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="31">
-        <v>20</v>
-      </c>
-      <c r="D27" s="31">
-        <v>3</v>
-      </c>
-      <c r="E27" s="31">
-        <v>9</v>
-      </c>
-      <c r="F27" s="31">
-        <v>1</v>
-      </c>
-      <c r="G27" s="34">
+      <c r="B27" s="21"/>
+      <c r="C27" s="19">
         <v>0</v>
       </c>
-      <c r="U27" s="42"/>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0</v>
+      </c>
+      <c r="U27" s="30"/>
       <c r="BL27" s="1"/>
       <c r="BM27" s="1"/>
       <c r="BN27" s="1"/>
       <c r="BO27" s="1"/>
     </row>
     <row r="28" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="31">
-        <v>20</v>
-      </c>
-      <c r="D28" s="31">
-        <v>5</v>
-      </c>
-      <c r="E28" s="31">
-        <v>10</v>
-      </c>
-      <c r="F28" s="31">
-        <v>3</v>
-      </c>
-      <c r="G28" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="U28" s="42"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="19">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0</v>
+      </c>
+      <c r="U28" s="30"/>
       <c r="BL28" s="1"/>
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
       <c r="BO28" s="1"/>
     </row>
     <row r="29" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="31">
-        <v>20</v>
-      </c>
-      <c r="D29" s="31">
-        <v>2</v>
-      </c>
-      <c r="E29" s="31">
-        <v>11</v>
-      </c>
-      <c r="F29" s="31">
-        <v>5</v>
-      </c>
-      <c r="G29" s="34">
+      <c r="B29" s="21"/>
+      <c r="C29" s="19">
         <v>0</v>
       </c>
-      <c r="U29" s="42"/>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+      <c r="U29" s="30"/>
       <c r="BL29" s="1"/>
       <c r="BM29" s="1"/>
       <c r="BN29" s="1"/>
       <c r="BO29" s="1"/>
     </row>
     <row r="30" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="31">
-        <v>20</v>
-      </c>
-      <c r="D30" s="31">
-        <v>1</v>
-      </c>
-      <c r="E30" s="31">
-        <v>12</v>
-      </c>
-      <c r="F30" s="31">
-        <v>5</v>
-      </c>
-      <c r="G30" s="34">
+      <c r="B30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="19">
+        <v>50</v>
+      </c>
+      <c r="D30" s="19">
+        <v>10</v>
+      </c>
+      <c r="E30" s="19">
+        <v>50</v>
+      </c>
+      <c r="F30" s="19">
+        <v>10</v>
+      </c>
+      <c r="G30" s="22">
         <v>0</v>
       </c>
-      <c r="U30" s="42"/>
+      <c r="U30" s="30"/>
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
       <c r="BO30" s="1"/>
     </row>
     <row r="31" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="39">
+      <c r="B31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="27">
         <v>50</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="27">
         <v>7</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="27">
         <v>20</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="27">
         <v>7</v>
       </c>
-      <c r="G31" s="40">
-        <v>0</v>
-      </c>
-      <c r="U31" s="42"/>
+      <c r="G31" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="U31" s="30"/>
       <c r="BL31" s="1"/>
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
@@ -2443,38 +2413,38 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="B32:G32">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BO31">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GestionProjet/GanttComplete.xlsx
+++ b/GestionProjet/GanttComplete.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6EE600-4BD4-9149-A091-D27C0870484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD88B199-1B62-B54A-B961-A03660830270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Evaluer la condition physique des utilisateurs</t>
   </si>
   <si>
-    <t>Communication Front &amp; Back (server RestFULL)</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>Column6</t>
   </si>
   <si>
-    <t>Liste questions pour vectorialiser l'USER</t>
-  </si>
-  <si>
     <t>Scrapping Gif</t>
   </si>
   <si>
@@ -242,6 +236,18 @@
   </si>
   <si>
     <t>Voir les financements de MAJ</t>
+  </si>
+  <si>
+    <t>Communication avec le serveur RestFull</t>
+  </si>
+  <si>
+    <t>Création d'une chartes graphiques</t>
+  </si>
+  <si>
+    <t>Ajouter les GIFs à la création des séances</t>
+  </si>
+  <si>
+    <t>Organisation de la navigation entre les pages</t>
   </si>
 </sst>
 </file>
@@ -1476,8 +1482,8 @@
   </sheetPr>
   <dimension ref="A1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1801,22 +1807,22 @@
     </row>
     <row r="5" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="U5" s="30"/>
     </row>
@@ -2054,7 +2060,7 @@
     </row>
     <row r="17" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C17" s="19">
         <v>14</v>
@@ -2075,7 +2081,7 @@
     </row>
     <row r="18" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="21" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C18" s="19">
         <v>21</v>
@@ -2097,7 +2103,7 @@
     <row r="19" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="19">
         <v>21</v>
@@ -2118,7 +2124,7 @@
     </row>
     <row r="20" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="19">
         <v>21</v>
@@ -2140,7 +2146,7 @@
     <row r="21" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="19">
         <v>14</v>
@@ -2161,7 +2167,7 @@
     </row>
     <row r="22" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="19">
         <v>29</v>
@@ -2187,7 +2193,7 @@
     <row r="23" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="19">
         <v>29</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="24" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="19">
         <v>42</v>
@@ -2237,7 +2243,7 @@
     </row>
     <row r="25" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C25" s="19">
         <v>60</v>
@@ -2257,7 +2263,9 @@
       <c r="BO25" s="1"/>
     </row>
     <row r="26" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="21"/>
+      <c r="B26" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="C26" s="19">
         <v>0</v>
       </c>
@@ -2326,7 +2334,9 @@
       <c r="BO28" s="1"/>
     </row>
     <row r="29" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="21"/>
+      <c r="B29" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="C29" s="19">
         <v>0</v>
       </c>
@@ -2350,7 +2360,7 @@
     </row>
     <row r="30" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="19">
         <v>50</v>
@@ -2375,7 +2385,7 @@
     </row>
     <row r="31" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="27">
         <v>50</v>

--- a/GestionProjet/GanttComplete.xlsx
+++ b/GestionProjet/GanttComplete.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD88B199-1B62-B54A-B961-A03660830270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A98277F-FE99-2A41-93C4-0E03BB52A1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4780" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1482,8 +1482,8 @@
   </sheetPr>
   <dimension ref="A1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
